--- a/busi/沪硅产业估值.xlsx
+++ b/busi/沪硅产业估值.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\python\busi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_code\busi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F268F02-2865-460E-95ED-455E94C8C2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4905" yWindow="3540" windowWidth="18000" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="波动率与流动性折扣率" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>朱延</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
@@ -358,79 +357,11 @@
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 6" xfId="3"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,6 +380,7 @@
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
       <sheetName val="Sheet3"/>
+      <sheetName val="ThsFunc"/>
     </sheetNames>
     <definedNames>
       <definedName name="thsiFinD"/>
@@ -457,6 +389,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -470,7 +403,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -724,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -824,7 +757,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
-        <v>44734</v>
+        <v>44907</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -841,44 +774,44 @@
       <c r="F2" s="21">
         <v>44816</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="6" t="e">
         <f>DATEDIF(A2,F2,"d")</f>
-        <v>82</v>
+        <v>#NUM!</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="21" t="e">
         <f>J2-G2</f>
-        <v>44652</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="21">
         <f>A2</f>
-        <v>44734</v>
-      </c>
-      <c r="K2" s="22">
-        <f>[1]!thsiFinD("ths_volatility_annual_stock",C2,I2,J2,"100","100")/100</f>
-        <v>0.37623279638497997</v>
-      </c>
-      <c r="L2" s="23">
+        <v>44907</v>
+      </c>
+      <c r="K2" s="22" t="e">
+        <f ca="1">[1]!thsiFinD("ths_volatility_annual_stock",C2,I2,J2,"100","100")/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="23" t="e">
         <f>IF(G2&gt;0,G2,180)/365</f>
-        <v>0.22465753424657534</v>
+        <v>#NUM!</v>
       </c>
       <c r="M2" s="8">
         <v>0</v>
       </c>
-      <c r="N2" s="24">
-        <f>SQRT((L2*K2^2+LN(2*(EXP(L2*K2^2)-L2*K2^2-1)/(EXP(L2*K2^2)-1)^2)))</f>
-        <v>0.10268414413071968</v>
-      </c>
-      <c r="O2" s="13">
-        <f>1-(H2*EXP(-M2*L2)*(NORMSDIST(N2/2)-NORMSDIST(-N2/2)))/H2</f>
-        <v>0.95905294363305904</v>
+      <c r="N2" s="24" t="e">
+        <f ca="1">SQRT((L2*K2^2+LN(2*(EXP(L2*K2^2)-L2*K2^2-1)/(EXP(L2*K2^2)-1)^2)))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O2" s="13" t="e">
+        <f ca="1">1-(H2*EXP(-M2*L2)*(NORMSDIST(N2/2)-NORMSDIST(-N2/2)))/H2</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
-        <v>44734</v>
+        <v>44907</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -895,9 +828,9 @@
       <c r="F3" s="21">
         <v>44814</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="6" t="e">
         <f>DATEDIF(A3,F3,"d")</f>
-        <v>80</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -912,25 +845,25 @@
         <f>[1]!thsiFinD("ths_volatility_annual_stock",C3,I3,J3,"100","100")/100</f>
         <v>0.27977719323157002</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="23" t="e">
         <f>IF(G3&gt;0,G3,180)/365</f>
-        <v>0.21917808219178081</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="24" t="e">
         <f>SQRT((L3*K3^2+LN(2*(EXP(L3*K3^2)-L3*K3^2-1)/(EXP(L3*K3^2)-1)^2)))</f>
-        <v>7.5514210873230361E-2</v>
-      </c>
-      <c r="O3" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="O3" s="13" t="e">
         <f>1-(H3*EXP(-M3*L3)*(NORMSDIST(N3/2)-NORMSDIST(-N3/2)))/H3</f>
-        <v>0.96988134486898048</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
-        <v>44734</v>
+        <v>44907</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>27</v>
@@ -947,9 +880,9 @@
       <c r="F4" s="21">
         <v>44860</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="6" t="e">
         <f>DATEDIF(A4,F4,"d")</f>
-        <v>126</v>
+        <v>#NUM!</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -964,20 +897,20 @@
         <f>[1]!thsiFinD("ths_volatility_annual_stock",C4,I4,J4,"100","100")/100</f>
         <v>0.29267613233221002</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="23" t="e">
         <f>IF(G4&gt;0,G4,180)/365</f>
-        <v>0.34520547945205482</v>
+        <v>#NUM!</v>
       </c>
       <c r="M4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="24" t="e">
         <f>SQRT((L4*K4^2+LN(2*(EXP(L4*K4^2)-L4*K4^2-1)/(EXP(L4*K4^2)-1)^2)))</f>
-        <v>9.9036073898401439E-2</v>
-      </c>
-      <c r="O4" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="O4" s="13" t="e">
         <f>1-(H4*EXP(-M4*L4)*(NORMSDIST(N4/2)-NORMSDIST(-N4/2)))/H4</f>
-        <v>0.96050646342493629</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
